--- a/dados/movimentação_estoque.xlsx
+++ b/dados/movimentação_estoque.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,35 +448,50 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Horário da Movimentação</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Tipo de Movimentação</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Nome</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Valor Unitário</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Quantidade</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Unidade</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Motivo da Movimentação</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Fornecedor</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Responsável</t>
         </is>
@@ -481,153 +499,1648 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45793</v>
+        <v>45796</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saída</t>
+          <t>23:12:29.598827</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vinhos e Espumantes</t>
+          <t>Entrada</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cabriz - 750ml</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Consumo na casa</t>
-        </is>
+          <t>Frutos do Mar</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ovas de peixe azul</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cauã</t>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45793</v>
+        <v>45796</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saída</t>
+          <t>23:12:19.081070</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vinhos e Espumantes</t>
+          <t>Entrada</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cabriz - 750ml</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Consumo na casa</t>
-        </is>
+          <t>Licores e Aperitivos</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Frangelico Liqueur - 700ml</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cauã</t>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45793</v>
+        <v>45796</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Entrada</t>
+          <t>23:12:10.610515</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Vinhos e Espumantes</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Cabriz - 750ml</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Transferência entre lojas</t>
-        </is>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Chianti - 750ml</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cauã</t>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45793</v>
+        <v>45796</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Entrada</t>
+          <t>23:12:04.236170</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Licores e Aperitivos</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cointreau - 750ml</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>23:11:56.281092</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Carnes e Embutidos</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bacon peça</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>23:11:50.739115</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Carnes e Embutidos</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Camarão com casca</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>22:51:44.978170</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Destilados</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Absolut - 1L </t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>22:51:06.084912</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Destilados</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Absolut - 1L </t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>22:50:52.000003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Vinhos e Espumantes</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Adobe Reserva Chardonnay - 750ml</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Transferência entre lojas</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Cauã</t>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Alamos Torrontés - 750ml</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>40</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>22:50:40.140683</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Destilados</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Absolut - 1L </t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>20</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>22:44:27.753631</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Saída</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Licores e Aperitivos</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fireball - 750ml</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Consumo na casa</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>22:44:09.048223</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Licores e Aperitivos</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Fireball - 750ml</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>40</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>22:43:54.004251</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Licores e Aperitivos</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Fireball - 750ml</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>50</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>22:40:32.233551</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Licores e Aperitivos</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Fireball - 750ml</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>500</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>22:38:30.179408</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Licores e Aperitivos</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Fireball - 750ml</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>22</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>22:38:04.965259</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Destilados</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Absolut - 1L </t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>30</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>22:32:03.556072</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Saída</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Bebidas Não Alcoólicas</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Redbull Zero</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>40</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Consumo na casa</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>22:31:35.347651</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Bebidas Não Alcoólicas</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Redbull Zero</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>20</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>22:31:12.249585</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Bebidas Não Alcoólicas</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Redbull Zero</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>22:30:22.679393</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Bebidas Não Alcoólicas</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Redbull Zero</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>25</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>22:30:06.545036</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Saída</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Destilados</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Absolut - 1L </t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Consumo na casa</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>22:29:59.815187</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Destilados</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Absolut - 1L </t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>22:29:59.229950</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Destilados</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Absolut - 1L </t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>22:29:58.511058</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Destilados</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Absolut - 1L </t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>22:29:51.121731</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Saída</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Destilados</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Absolut - 1L </t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Consumo na casa</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>22:28:40.789355</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Saída</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Destilados</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Absolut - 1L </t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Consumo na casa</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>22:28:10.339366</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Saída</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Destilados</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Absolut - 1L </t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Consumo na casa</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>22:27:49.664397</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Saída</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Destilados</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Absolut - 1L </t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Consumo na casa</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>22:27:35.759337</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Vinhos e Espumantes</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Alamos Torrontés - 750ml</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>22:27:31.680530</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Destilados</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Absolut - 1L </t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>22:21:07.248920</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Saída</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Destilados</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Absolut - 1L </t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Consumo na casa</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>22:21:07.025497</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Saída</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Destilados</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Absolut - 1L </t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Consumo na casa</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>22:20:44.667560</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Destilados</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Absolut - 1L </t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>40</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
         </is>
       </c>
     </row>

--- a/dados/movimentação_estoque.xlsx
+++ b/dados/movimentação_estoque.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,11 +499,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45796</v>
+        <v>45797</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23:12:29.598827</t>
+          <t>08:42:46.430056</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -513,23 +513,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Frutos do Mar</t>
+          <t>Vinhos e Espumantes</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ovas de peixe azul</t>
+          <t>Casal Mendes Vinho Verde - 750ml</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9</v>
+        <v>70</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>UN</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -550,11 +550,11 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45796</v>
+        <v>45797</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23:12:19.081070</t>
+          <t>08:42:12.154175</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -564,19 +564,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Licores e Aperitivos</t>
+          <t>Vinhos e Espumantes</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Frangelico Liqueur - 700ml</t>
+          <t>Visionario Chardonnay - 750ml</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -601,11 +601,11 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45796</v>
+        <v>45797</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23:12:10.610515</t>
+          <t>08:18:48.267941</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -620,14 +620,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Chianti - 750ml</t>
+          <t>Adobe Reserva Chardonnay - 750ml</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -652,343 +652,343 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45796</v>
+        <v>45797</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>08:18:33.581582</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Destilados</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Absolut - 1L </t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>23:12:29.598827</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Frutos do Mar</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ovas de peixe azul</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>KG</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>23:12:19.081070</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Licores e Aperitivos</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Frangelico Liqueur - 700ml</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>9</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>23:12:10.610515</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Vinhos e Espumantes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Chianti - 750ml</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>23:12:04.236170</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Licores e Aperitivos</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Cointreau - 750ml</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Transferência entre lojas</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>CAMPO VERDE DISTRIBUIDORA</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Sérgio</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45796</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>23:11:56.281092</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>Carnes e Embutidos</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Bacon peça</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.1</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Transferência entre lojas</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>CAMPO VERDE DISTRIBUIDORA</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Sérgio</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45796</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>23:11:50.739115</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Carnes e Embutidos</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Camarão com casca</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.1</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>KG</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Transferência entre lojas</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>CAMPO VERDE DISTRIBUIDORA</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Sérgio</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45796</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>22:51:44.978170</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Absolut - 1L </t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Transferência entre lojas</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>CAMPO VERDE DISTRIBUIDORA</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Sérgio</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45796</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>22:51:06.084912</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Absolut - 1L </t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Transferência entre lojas</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>CAMPO VERDE DISTRIBUIDORA</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Sérgio</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45796</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>22:50:52.000003</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Vinhos e Espumantes</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Alamos Torrontés - 750ml</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>40</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Transferência entre lojas</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>CAMPO VERDE DISTRIBUIDORA</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Sérgio</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45796</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>22:50:40.140683</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Destilados</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Absolut - 1L </t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>20</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>UN</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1013,29 +1013,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22:44:27.753631</t>
+          <t>22:51:44.978170</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Saída</t>
+          <t>Entrada</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Licores e Aperitivos</t>
+          <t>Destilados</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Fireball - 750ml</t>
+          <t xml:space="preserve">Absolut - 1L </t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1044,10 +1044,14 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Consumo na casa</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>Sérgio</t>
@@ -1060,7 +1064,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22:44:09.048223</t>
+          <t>22:51:06.084912</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1070,19 +1074,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Licores e Aperitivos</t>
+          <t>Destilados</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Fireball - 750ml</t>
+          <t xml:space="preserve">Absolut - 1L </t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1111,7 +1115,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22:43:54.004251</t>
+          <t>22:50:52.000003</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1121,16 +1125,16 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Licores e Aperitivos</t>
+          <t>Vinhos e Espumantes</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Fireball - 750ml</t>
+          <t>Alamos Torrontés - 750ml</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G14" t="n">
         <v>10</v>
@@ -1162,7 +1166,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22:40:32.233551</t>
+          <t>22:50:40.140683</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1172,19 +1176,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Licores e Aperitivos</t>
+          <t>Destilados</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Fireball - 750ml</t>
+          <t xml:space="preserve">Absolut - 1L </t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1213,12 +1217,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>22:38:30.179408</t>
+          <t>22:44:27.753631</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Entrada</t>
+          <t>Saída</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1232,10 +1236,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1244,14 +1248,10 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Transferência entre lojas</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>CAMPO VERDE DISTRIBUIDORA</t>
-        </is>
-      </c>
+          <t>Consumo na casa</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>Sérgio</t>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>22:38:04.965259</t>
+          <t>22:44:09.048223</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1274,19 +1274,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Destilados</t>
+          <t>Licores e Aperitivos</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Absolut - 1L </t>
+          <t>Fireball - 750ml</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1315,29 +1315,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>22:32:03.556072</t>
+          <t>22:43:54.004251</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Saída</t>
+          <t>Entrada</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Bebidas Não Alcoólicas</t>
+          <t>Licores e Aperitivos</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Redbull Zero</t>
+          <t>Fireball - 750ml</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G18" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1346,10 +1346,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Consumo na casa</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>Sérgio</t>
@@ -1362,7 +1366,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>22:31:35.347651</t>
+          <t>22:40:32.233551</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1372,19 +1376,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Bebidas Não Alcoólicas</t>
+          <t>Licores e Aperitivos</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Redbull Zero</t>
+          <t>Fireball - 750ml</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G19" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1413,7 +1417,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>22:31:12.249585</t>
+          <t>22:38:30.179408</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1423,19 +1427,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bebidas Não Alcoólicas</t>
+          <t>Licores e Aperitivos</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Redbull Zero</t>
+          <t>Fireball - 750ml</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1464,7 +1468,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>22:30:22.679393</t>
+          <t>22:38:04.965259</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1474,19 +1478,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Bebidas Não Alcoólicas</t>
+          <t>Destilados</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Redbull Zero</t>
+          <t xml:space="preserve">Absolut - 1L </t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G21" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1515,7 +1519,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>22:30:06.545036</t>
+          <t>22:32:03.556072</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1525,19 +1529,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Destilados</t>
+          <t>Bebidas Não Alcoólicas</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Absolut - 1L </t>
+          <t>Redbull Zero</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1562,7 +1566,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>22:29:59.815187</t>
+          <t>22:31:35.347651</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1572,19 +1576,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Destilados</t>
+          <t>Bebidas Não Alcoólicas</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Absolut - 1L </t>
+          <t>Redbull Zero</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1613,7 +1617,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>22:29:59.229950</t>
+          <t>22:31:12.249585</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1623,19 +1627,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Destilados</t>
+          <t>Bebidas Não Alcoólicas</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Absolut - 1L </t>
+          <t>Redbull Zero</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1664,7 +1668,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>22:29:58.511058</t>
+          <t>22:30:22.679393</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1674,19 +1678,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Destilados</t>
+          <t>Bebidas Não Alcoólicas</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Absolut - 1L </t>
+          <t>Redbull Zero</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1715,7 +1719,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>22:29:51.121731</t>
+          <t>22:30:06.545036</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1737,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1762,12 +1766,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>22:28:40.789355</t>
+          <t>22:29:59.815187</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Saída</t>
+          <t>Entrada</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1784,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1793,10 +1797,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Consumo na casa</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>Sérgio</t>
@@ -1809,12 +1817,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>22:28:10.339366</t>
+          <t>22:29:59.229950</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Saída</t>
+          <t>Entrada</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1831,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1840,10 +1848,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Consumo na casa</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>Sérgio</t>
@@ -1856,12 +1868,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>22:27:49.664397</t>
+          <t>22:29:58.511058</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Saída</t>
+          <t>Entrada</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1878,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1887,10 +1899,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Consumo na casa</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>Sérgio</t>
@@ -1903,29 +1919,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>22:27:35.759337</t>
+          <t>22:29:51.121731</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Entrada</t>
+          <t>Saída</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Vinhos e Espumantes</t>
+          <t>Destilados</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Alamos Torrontés - 750ml</t>
+          <t xml:space="preserve">Absolut - 1L </t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1934,14 +1950,10 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Transferência entre lojas</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>CAMPO VERDE DISTRIBUIDORA</t>
-        </is>
-      </c>
+          <t>Consumo na casa</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>Sérgio</t>
@@ -1954,12 +1966,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>22:27:31.680530</t>
+          <t>22:28:40.789355</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Entrada</t>
+          <t>Saída</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1976,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1985,14 +1997,10 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Transferência entre lojas</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>CAMPO VERDE DISTRIBUIDORA</t>
-        </is>
-      </c>
+          <t>Consumo na casa</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>Sérgio</t>
@@ -2005,7 +2013,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>22:21:07.248920</t>
+          <t>22:28:10.339366</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2027,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2052,7 +2060,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>22:21:07.025497</t>
+          <t>22:27:49.664397</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2074,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2099,46 +2107,242 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>22:27:35.759337</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Vinhos e Espumantes</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Alamos Torrontés - 750ml</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>22:27:31.680530</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Destilados</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Absolut - 1L </t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>22:21:07.248920</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Saída</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Destilados</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Absolut - 1L </t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Consumo na casa</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>22:21:07.025497</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Saída</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Destilados</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Absolut - 1L </t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Consumo na casa</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>22:20:44.667560</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>Destilados</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t xml:space="preserve">Absolut - 1L </t>
         </is>
       </c>
-      <c r="F34" t="n">
+      <c r="F38" t="n">
         <v>40</v>
       </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>UN</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Transferência entre lojas</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>CAMPO VERDE DISTRIBUIDORA</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>Sérgio</t>
         </is>

--- a/dados/movimentação_estoque.xlsx
+++ b/dados/movimentação_estoque.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cauac\OneDrive\Área de Trabalho\FUJI\Gerenciamento de Estoque\FujiStock\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6C2F5C-8D75-4494-B0C1-5BF171575183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF69E51-0183-43DD-B467-D0A045B7B755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,9 +59,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,12 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:L61"/>
+      <selection activeCell="A2" sqref="A2:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,117 +458,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dados/movimentação_estoque.xlsx
+++ b/dados/movimentação_estoque.xlsx
@@ -1,81 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cauac\OneDrive\Área de Trabalho\FUJI\Gerenciamento de Estoque\FujiStock\dados\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF69E51-0183-43DD-B467-D0A045B7B755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Data da Movimentação</t>
-  </si>
-  <si>
-    <t>Horário da Movimentação</t>
-  </si>
-  <si>
-    <t>Tipo de Movimentação</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Valor Unitário</t>
-  </si>
-  <si>
-    <t>Quantidade</t>
-  </si>
-  <si>
-    <t>Unidade</t>
-  </si>
-  <si>
-    <t>Motivo da Movimentação</t>
-  </si>
-  <si>
-    <t>Fornecedor</t>
-  </si>
-  <si>
-    <t>Responsável</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,48 +420,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Data da Movimentação</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Horário da Movimentação</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo de Movimentação</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Valor Unitário</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Motivo da Movimentação</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Fornecedor</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Responsável</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025/05/21</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>09:20:22.345010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Destilados</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Absolut - 1L </t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
+      <c r="G2" t="n">
+        <v>90</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>UN</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Transferência entre lojas</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CAMPO VERDE DISTRIBUIDORA</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Sérgio</t>
+        </is>
       </c>
     </row>
   </sheetData>
